--- a/Excel Course/Resources/Excel+Homework+Workbooks/Excel_Homework_Exercises_ANSWERS.xlsx
+++ b/Excel Course/Resources/Excel+Homework+Workbooks/Excel_Homework_Exercises_ANSWERS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\Maven Analytics\Excel Maven\Udemy\Course 1 - Formulas &amp; Functions\Excel Files\Homework Exercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\GitHub\personal-improvement\Excel Course\Resources\Excel+Homework+Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6537D578-F5CF-4B65-B670-3038D6896F5A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="709" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="709" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas 101" sheetId="19" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <sheet name="Array Functions" sheetId="26" r:id="rId12"/>
     <sheet name="Bonus Array Function" sheetId="24" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2062,15 +2061,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="7">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="166" formatCode="dddd"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="m/d;@"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="167" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="168" formatCode="dddd"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -2324,7 +2323,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="93">
@@ -2347,10 +2346,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2381,10 +2380,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2432,13 +2431,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2450,39 +2449,39 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2491,13 +2490,13 @@
     <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -2506,7 +2505,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2519,22 +2518,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2555,6 +2554,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2565,24 +2582,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2639,7 +2638,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2840,7 +2839,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3204,7 +3203,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3432,7 +3431,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3707,7 +3706,7 @@
         <xdr:cNvPr id="3" name="Arrow: Down 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B87A2A5-87A2-4D55-8ACC-C30808F34891}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B87A2A5-87A2-4D55-8ACC-C30808F34891}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3781,7 +3780,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4126,7 +4125,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4431,7 +4430,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4688,7 +4687,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5122,7 +5121,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5745,7 +5744,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6190,7 +6189,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6967,13 +6966,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -7568,7 +7567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
@@ -7604,7 +7603,7 @@
       </c>
       <c r="C3" s="53">
         <f ca="1">TODAY()</f>
-        <v>43630</v>
+        <v>44191</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7613,7 +7612,7 @@
       </c>
       <c r="C4" s="54">
         <f ca="1">NOW()</f>
-        <v>43630.692003009259</v>
+        <v>44191.740131712962</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7639,27 +7638,27 @@
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="55">
         <f ca="1">YEAR(C3)</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C7" s="55">
         <f ca="1">MONTH(C3)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D7" s="55">
         <f ca="1">DAY(C3)</f>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E7" s="55">
         <f ca="1">HOUR(C4)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" s="55">
         <f ca="1">MINUTE(C4)</f>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G7" s="55">
         <f ca="1">SECOND(C4)</f>
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7677,7 +7676,7 @@
       </c>
       <c r="C9" s="56">
         <f ca="1">WEEKDAY(C3)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7690,7 +7689,7 @@
       </c>
       <c r="C11" s="53">
         <f ca="1">WORKDAY(C3,50)</f>
-        <v>43700</v>
+        <v>44260</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7699,7 +7698,7 @@
       </c>
       <c r="C12" s="57">
         <f ca="1">NETWORKDAYS(C2,C3)</f>
-        <v>1162</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -7709,7 +7708,7 @@
       </c>
       <c r="C14" s="53">
         <f ca="1">EOMONTH(C3,0)</f>
-        <v>43646</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7718,7 +7717,7 @@
       </c>
       <c r="C15" s="53">
         <f ca="1">EOMONTH(C3,-1)+1</f>
-        <v>43617</v>
+        <v>44166</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7727,7 +7726,7 @@
       </c>
       <c r="C16" s="53">
         <f ca="1">EOMONTH(C3,(-1*C7))+1</f>
-        <v>43466</v>
+        <v>43831</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
@@ -7817,7 +7816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
@@ -8518,14 +8517,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8855,7 +8854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
@@ -8883,23 +8882,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="89" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="G1" s="84"/>
-      <c r="I1" s="85" t="s">
+      <c r="G1" s="90"/>
+      <c r="I1" s="91" t="s">
         <v>195</v>
       </c>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -9325,27 +9324,27 @@
       <c r="L17" s="8"/>
     </row>
     <row r="18" spans="1:19" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="86" t="s">
+      <c r="A18" s="92" t="s">
         <v>267</v>
       </c>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="86"/>
-      <c r="S18" s="86"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="92"/>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="92"/>
+      <c r="S18" s="92"/>
     </row>
     <row r="19" spans="1:19" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="77"/>
@@ -9369,50 +9368,50 @@
       <c r="S19" s="77"/>
     </row>
     <row r="20" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="85" t="s">
         <v>256</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="88"/>
-      <c r="S20" s="88"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="86"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="86"/>
     </row>
     <row r="21" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="85" t="s">
         <v>262</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="88"/>
-      <c r="S21" s="88"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="86"/>
     </row>
     <row r="22" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="79" t="s">
@@ -9438,96 +9437,96 @@
       <c r="S22" s="80"/>
     </row>
     <row r="23" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="91" t="s">
+      <c r="A23" s="87" t="s">
         <v>258</v>
       </c>
-      <c r="B23" s="92"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="92"/>
-      <c r="Q23" s="92"/>
-      <c r="R23" s="92"/>
-      <c r="S23" s="92"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="88"/>
+      <c r="Q23" s="88"/>
+      <c r="R23" s="88"/>
+      <c r="S23" s="88"/>
     </row>
     <row r="24" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="91" t="s">
+      <c r="A24" s="87" t="s">
         <v>263</v>
       </c>
-      <c r="B24" s="92"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="92"/>
-      <c r="M24" s="92"/>
-      <c r="N24" s="92"/>
-      <c r="O24" s="92"/>
-      <c r="P24" s="92"/>
-      <c r="Q24" s="92"/>
-      <c r="R24" s="92"/>
-      <c r="S24" s="92"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="88"/>
+      <c r="S24" s="88"/>
     </row>
     <row r="25" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="91" t="s">
+      <c r="A25" s="87" t="s">
         <v>264</v>
       </c>
-      <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="92"/>
-      <c r="Q25" s="92"/>
-      <c r="R25" s="92"/>
-      <c r="S25" s="92"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="88"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="88"/>
     </row>
     <row r="26" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="87" t="s">
+      <c r="A26" s="85" t="s">
         <v>265</v>
       </c>
-      <c r="B26" s="88"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="88"/>
-      <c r="P26" s="88"/>
-      <c r="Q26" s="88"/>
-      <c r="R26" s="88"/>
-      <c r="S26" s="88"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="86"/>
+      <c r="Q26" s="86"/>
+      <c r="R26" s="86"/>
+      <c r="S26" s="86"/>
     </row>
     <row r="27" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="79" t="s">
@@ -9553,76 +9552,81 @@
       <c r="S27" s="80"/>
     </row>
     <row r="28" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="89" t="s">
+      <c r="A28" s="83" t="s">
         <v>260</v>
       </c>
-      <c r="B28" s="90"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="90"/>
-      <c r="Q28" s="90"/>
-      <c r="R28" s="90"/>
-      <c r="S28" s="90"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="84"/>
+      <c r="P28" s="84"/>
+      <c r="Q28" s="84"/>
+      <c r="R28" s="84"/>
+      <c r="S28" s="84"/>
     </row>
     <row r="29" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="87" t="s">
+      <c r="A29" s="85" t="s">
         <v>266</v>
       </c>
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="88"/>
-      <c r="N29" s="88"/>
-      <c r="O29" s="88"/>
-      <c r="P29" s="88"/>
-      <c r="Q29" s="88"/>
-      <c r="R29" s="88"/>
-      <c r="S29" s="88"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="86"/>
+      <c r="Q29" s="86"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="86"/>
     </row>
     <row r="30" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="87" t="s">
+      <c r="A30" s="85" t="s">
         <v>261</v>
       </c>
-      <c r="B30" s="88"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="88"/>
-      <c r="M30" s="88"/>
-      <c r="N30" s="88"/>
-      <c r="O30" s="88"/>
-      <c r="P30" s="88"/>
-      <c r="Q30" s="88"/>
-      <c r="R30" s="88"/>
-      <c r="S30" s="88"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="86"/>
+      <c r="O30" s="86"/>
+      <c r="P30" s="86"/>
+      <c r="Q30" s="86"/>
+      <c r="R30" s="86"/>
+      <c r="S30" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="A18:S18"/>
+    <mergeCell ref="A26:S26"/>
     <mergeCell ref="A28:S28"/>
     <mergeCell ref="A29:S29"/>
     <mergeCell ref="A30:S30"/>
@@ -9631,11 +9635,6 @@
     <mergeCell ref="A23:S23"/>
     <mergeCell ref="A24:S24"/>
     <mergeCell ref="A25:S25"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="A18:S18"/>
-    <mergeCell ref="A26:S26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9644,7 +9643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
@@ -10109,7 +10108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
@@ -11409,7 +11408,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
       <formula1>$M$1:$M$4</formula1>
     </dataValidation>
   </dataValidations>
@@ -11424,7 +11423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
@@ -16783,7 +16782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -17226,7 +17225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -20103,7 +20102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
@@ -20394,10 +20393,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>$A$2:$A$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3" xr:uid="{00000000-0002-0000-0600-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
       <formula1>"Impressions, Clicks, Transactions"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20412,14 +20411,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20648,7 +20647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
